--- a/output/GOres_Rescue_noDIFF.xlsx
+++ b/output/GOres_Rescue_noDIFF.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t xml:space="preserve">query</t>
   </si>
@@ -59,25 +59,34 @@
     <t xml:space="preserve">noDIFFRAPA_noRESC</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0048731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:BP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007275, GO:0048856</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0032501</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:BP</t>
-  </si>
-  <si>
     <t xml:space="preserve">multicellular organismal process</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0008150</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0048731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0007275, GO:0048856</t>
+    <t xml:space="preserve">GO:0007275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multicellular organism development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0032501, GO:0048856</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0032502</t>
@@ -86,21 +95,21 @@
     <t xml:space="preserve">developmental process</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0007275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multicellular organism development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0032501, GO:0048856</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0048856</t>
   </si>
   <si>
     <t xml:space="preserve">anatomical structure development</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0009653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0032502, GO:0048856</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0007155</t>
   </si>
   <si>
@@ -110,13 +119,19 @@
     <t xml:space="preserve">GO:0009987</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0009653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anatomical structure morphogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0032502, GO:0048856</t>
+    <t xml:space="preserve">GO:0042127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell population proliferation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0008283, GO:0050794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0008283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell population proliferation</t>
   </si>
   <si>
     <t xml:space="preserve">GO:1901214</t>
@@ -128,15 +143,6 @@
     <t xml:space="preserve">GO:0010941, GO:0070997</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0097435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supramolecular fiber organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0016043</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO:0071944</t>
   </si>
   <si>
@@ -209,13 +215,13 @@
     <t xml:space="preserve">HPA:0090901</t>
   </si>
   <si>
-    <t xml:space="preserve">HPA:0091022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerebellum; processes in granular layer[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0091021</t>
+    <t xml:space="preserve">HPA:0641522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endometrium; nonciliated luminal epithelial cells[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0641521</t>
   </si>
   <si>
     <t xml:space="preserve">noDIFFRAPA_RESC</t>
@@ -236,6 +242,24 @@
     <t xml:space="preserve">chromosome segregation</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0022402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0000070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitotic sister chromatid segregation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0000819, GO:0140014, GO:1903047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0098813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuclear chromosome segregation</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0000280</t>
   </si>
   <si>
@@ -254,15 +278,6 @@
     <t xml:space="preserve">GO:0000280, GO:1903047</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0098813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuclear chromosome segregation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0007059, GO:0022402</t>
-  </si>
-  <si>
     <t xml:space="preserve">organelle fission</t>
   </si>
   <si>
@@ -275,16 +290,13 @@
     <t xml:space="preserve">regulation of chromosome segregation</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0007059, GO:0050794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0000070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitotic sister chromatid segregation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0000819, GO:0140014, GO:1903047</t>
+    <t xml:space="preserve">GO:0007059, GO:0010564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromosome organization</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0099512</t>
@@ -302,15 +314,6 @@
     <t xml:space="preserve">GO:0099080</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0000793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">condensed chromosome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0005694</t>
-  </si>
-  <si>
     <t xml:space="preserve">HPA:0461391</t>
   </si>
   <si>
@@ -353,24 +356,24 @@
     <t xml:space="preserve">skin 2; lymphocytes[≥Low]</t>
   </si>
   <si>
+    <t xml:space="preserve">HPA:0461392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; cells in basal layer[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0461412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; cells in spinous layer[≥Medium]</t>
+  </si>
+  <si>
     <t xml:space="preserve">HPA:0471412</t>
   </si>
   <si>
     <t xml:space="preserve">skin 2; cells in spinous layer[≥Medium]</t>
   </si>
   <si>
-    <t xml:space="preserve">HPA:0461392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; cells in basal layer[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0461412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; cells in spinous layer[≥Medium]</t>
-  </si>
-  <si>
     <t xml:space="preserve">HPA:0471442</t>
   </si>
   <si>
@@ -383,49 +386,55 @@
     <t xml:space="preserve">skin 2; fibrohistiocytic cells[≥Low]</t>
   </si>
   <si>
+    <t xml:space="preserve">HPA:0461461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; langerhans cells[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0461441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; fibrohistiocytic cells[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0461471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; lymphocytes[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0471472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 2; lymphocytes[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0461472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; lymphocytes[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0481301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small intestine; enterocytes[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0480000</t>
+  </si>
+  <si>
     <t xml:space="preserve">HPA:0471393</t>
   </si>
   <si>
     <t xml:space="preserve">skin 2; cells in basal layer[High]</t>
   </si>
   <si>
-    <t xml:space="preserve">HPA:0461461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; langerhans cells[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0481301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">small intestine; enterocytes[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0480000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0461471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; lymphocytes[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0461441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; fibrohistiocytic cells[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0471472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 2; lymphocytes[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0461472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; lymphocytes[≥Medium]</t>
+    <t xml:space="preserve">HPA:0461421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; eccrine glands[≥Low]</t>
   </si>
   <si>
     <t xml:space="preserve">HPA:0471443</t>
@@ -434,6 +443,39 @@
     <t xml:space="preserve">skin 2; fibrohistiocytic cells[High]</t>
   </si>
   <si>
+    <t xml:space="preserve">HPA:0460203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; endothelial cells[High]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0460202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0470203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 2; endothelial cells[High]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0470202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0470672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 2; melanocytes[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0470671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0461473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; lymphocytes[High]</t>
+  </si>
+  <si>
     <t xml:space="preserve">HPA:0461443</t>
   </si>
   <si>
@@ -443,13 +485,22 @@
     <t xml:space="preserve">HPA:0461442</t>
   </si>
   <si>
-    <t xml:space="preserve">HPA:0470672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 2; melanocytes[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0470671</t>
+    <t xml:space="preserve">skin 2; melanocytes[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0471461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 2; langerhans cells[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; endothelial cells[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0460201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; endothelial cells[≥Low]</t>
   </si>
   <si>
     <t xml:space="preserve">HPA:0131302</t>
@@ -461,25 +512,10 @@
     <t xml:space="preserve">HPA:0131301</t>
   </si>
   <si>
-    <t xml:space="preserve">skin 2; melanocytes[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0461421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; eccrine glands[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0460201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; endothelial cells[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0471461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 2; langerhans cells[≥Low]</t>
+    <t xml:space="preserve">HPA:0470201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 2; endothelial cells[≥Low]</t>
   </si>
   <si>
     <t xml:space="preserve">HPA:0131331</t>
@@ -491,6 +527,12 @@
     <t xml:space="preserve">HPA:0130000</t>
   </si>
   <si>
+    <t xml:space="preserve">HPA:0460181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; cells in granular layer[≥Low]</t>
+  </si>
+  <si>
     <t xml:space="preserve">HPA:0401302</t>
   </si>
   <si>
@@ -500,22 +542,31 @@
     <t xml:space="preserve">HPA:0401301</t>
   </si>
   <si>
-    <t xml:space="preserve">HPA:0460203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; endothelial cells[High]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0460202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; endothelial cells[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0461473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; lymphocytes[High]</t>
+    <t xml:space="preserve">HPA:0460182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; cells in granular layer[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0400653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectum; fibroblasts[High]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0400652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin 1; fibrohistiocytic cells[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0400892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectum; goblet cells[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0400891</t>
   </si>
   <si>
     <t xml:space="preserve">HPA:0151302</t>
@@ -527,13 +578,43 @@
     <t xml:space="preserve">HPA:0151301</t>
   </si>
   <si>
-    <t xml:space="preserve">HPA:0400892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectum; goblet cells[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0400891</t>
+    <t xml:space="preserve">HPA:0031291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appendix; endocrine cells[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0030000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectum; mucosal lymphoid cells[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectum; enterocytes[≥Low]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA root</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0131332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colon; mucosal lymphoid cells[≥Medium]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0401291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectum; endocrine cells[≥Low]</t>
   </si>
   <si>
     <t xml:space="preserve">HPA:0271132</t>
@@ -545,64 +626,7 @@
     <t xml:space="preserve">HPA:0271131</t>
   </si>
   <si>
-    <t xml:space="preserve">HPA:0470203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 2; endothelial cells[High]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0470202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0031291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appendix; endocrine cells[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0030000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0400653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectum; fibroblasts[High]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0400652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectum; mucosal lymphoid cells[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectum; enterocytes[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0470201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 2; endothelial cells[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0401291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectum; endocrine cells[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0131332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colon; mucosal lymphoid cells[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0460181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; cells in granular layer[≥Low]</t>
+    <t xml:space="preserve">skin 2; endothelial cells[≥Medium]</t>
   </si>
   <si>
     <t xml:space="preserve">HPA:0031292</t>
@@ -611,21 +635,6 @@
     <t xml:space="preserve">appendix; endocrine cells[≥Medium]</t>
   </si>
   <si>
-    <t xml:space="preserve">HPA:0460182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; cells in granular layer[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0301361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lung; alveolar cells type I[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0300000</t>
-  </si>
-  <si>
     <t xml:space="preserve">HPA:0151291</t>
   </si>
   <si>
@@ -633,75 +642,6 @@
   </si>
   <si>
     <t xml:space="preserve">HPA:0150000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 1; fibrohistiocytic cells[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0400241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectum; peripheral nerve/ganglion[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0471473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin 2; lymphocytes[High]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0130891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colon; goblet cells[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectum; goblet cells[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0031301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appendix; enterocytes[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0401292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rectum; endocrine cells[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0131292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colon; endocrine cells[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0131291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0091033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerebellum; processes in molecular layer[High]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0091032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0030432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appendix; germinal center cells[≥Medium]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPA:0030431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colon; enterocytes[≥Low]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duodenum; enterocytes[≥Low]</t>
   </si>
 </sst>
 </file>
@@ -1085,22 +1025,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0000139232006319014</v>
+        <v>0.00000862018680328644</v>
       </c>
       <c r="D2" t="n">
-        <v>4068</v>
+        <v>2737</v>
       </c>
       <c r="E2" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G2" t="n">
-        <v>0.614754098360656</v>
+        <v>0.457364341085271</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0184365781710914</v>
+        <v>0.0215564486664231</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -1112,10 +1052,10 @@
         <v>17</v>
       </c>
       <c r="L2" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M2" t="n">
-        <v>8803</v>
+        <v>13728</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
@@ -1129,22 +1069,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0000748195348844271</v>
+        <v>0.0000118088439096427</v>
       </c>
       <c r="D3" t="n">
-        <v>2754</v>
+        <v>4480</v>
       </c>
       <c r="E3" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F3" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="G3" t="n">
-        <v>0.475409836065574</v>
+        <v>0.612403100775194</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0210602759622367</v>
+        <v>0.0176339285714286</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
@@ -1156,10 +1096,10 @@
         <v>20</v>
       </c>
       <c r="L3" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M3" t="n">
-        <v>15031</v>
+        <v>8031</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
@@ -1173,22 +1113,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00011105204832956</v>
+        <v>0.0000636548379515586</v>
       </c>
       <c r="D4" t="n">
-        <v>3873</v>
+        <v>3200</v>
       </c>
       <c r="E4" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F4" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G4" t="n">
-        <v>0.581967213114754</v>
+        <v>0.488372093023256</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0183320423444358</v>
+        <v>0.0196875</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -1200,13 +1140,13 @@
         <v>23</v>
       </c>
       <c r="L4" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M4" t="n">
-        <v>8804</v>
+        <v>2871</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -1217,40 +1157,40 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000160921255970374</v>
+        <v>0.000209016591040687</v>
       </c>
       <c r="D5" t="n">
-        <v>3049</v>
+        <v>4259</v>
       </c>
       <c r="E5" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F5" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.573643410852713</v>
       </c>
       <c r="H5" t="n">
-        <v>0.020006559527714</v>
+        <v>0.0173749706503874</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M5" t="n">
-        <v>3166</v>
+        <v>8032</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1261,22 +1201,22 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000184070564999789</v>
+        <v>0.000587554160127404</v>
       </c>
       <c r="D6" t="n">
-        <v>3563</v>
+        <v>3896</v>
       </c>
       <c r="E6" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G6" t="n">
-        <v>0.549180327868853</v>
+        <v>0.534883720930233</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0188043783328656</v>
+        <v>0.0177104722792608</v>
       </c>
       <c r="I6" t="s">
         <v>27</v>
@@ -1288,13 +1228,13 @@
         <v>28</v>
       </c>
       <c r="L6" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M6" t="n">
-        <v>15146</v>
+        <v>13840</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -1305,22 +1245,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00153804913676052</v>
+        <v>0.00221271703737142</v>
       </c>
       <c r="D7" t="n">
-        <v>872</v>
+        <v>1823</v>
       </c>
       <c r="E7" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F7" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G7" t="n">
-        <v>0.229508196721311</v>
+        <v>0.325581395348837</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0321100917431193</v>
+        <v>0.0230389467910038</v>
       </c>
       <c r="I7" t="s">
         <v>29</v>
@@ -1332,10 +1272,10 @@
         <v>30</v>
       </c>
       <c r="L7" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M7" t="n">
-        <v>3055</v>
+        <v>3648</v>
       </c>
       <c r="N7" t="s">
         <v>31</v>
@@ -1349,22 +1289,22 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00714522273584283</v>
+        <v>0.00406990632042421</v>
       </c>
       <c r="D8" t="n">
-        <v>1716</v>
+        <v>935</v>
       </c>
       <c r="E8" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>0.327868852459016</v>
+        <v>0.217054263565891</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0233100233100233</v>
+        <v>0.0299465240641711</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -1376,10 +1316,10 @@
         <v>33</v>
       </c>
       <c r="L8" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M8" t="n">
-        <v>4021</v>
+        <v>2782</v>
       </c>
       <c r="N8" t="s">
         <v>34</v>
@@ -1393,22 +1333,22 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0173006348610949</v>
+        <v>0.00451764436539131</v>
       </c>
       <c r="D9" t="n">
-        <v>221</v>
+        <v>1061</v>
       </c>
       <c r="E9" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" t="n">
-        <v>0.10655737704918</v>
+        <v>0.232558139534884</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.0282752120640905</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
@@ -1420,10 +1360,10 @@
         <v>36</v>
       </c>
       <c r="L9" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M9" t="n">
-        <v>24533</v>
+        <v>10550</v>
       </c>
       <c r="N9" t="s">
         <v>37</v>
@@ -1437,22 +1377,22 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0243404312287043</v>
+        <v>0.00698585048785695</v>
       </c>
       <c r="D10" t="n">
-        <v>544</v>
+        <v>1274</v>
       </c>
       <c r="E10" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G10" t="n">
-        <v>0.163934426229508</v>
+        <v>0.255813953488372</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0367647058823529</v>
+        <v>0.0259026687598116</v>
       </c>
       <c r="I10" t="s">
         <v>38</v>
@@ -1464,13 +1404,13 @@
         <v>39</v>
       </c>
       <c r="L10" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M10" t="n">
-        <v>21838</v>
+        <v>3223</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1481,40 +1421,40 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00108180456891287</v>
+        <v>0.0285497400906592</v>
       </c>
       <c r="D11" t="n">
-        <v>3029</v>
+        <v>237</v>
       </c>
       <c r="E11" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F11" t="n">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.483606557377049</v>
+        <v>0.10077519379845</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0194783757015517</v>
+        <v>0.0548523206751055</v>
       </c>
       <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
         <v>41</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M11" t="n">
+        <v>22269</v>
+      </c>
+      <c r="N11" t="s">
         <v>42</v>
-      </c>
-      <c r="K11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3128</v>
-      </c>
-      <c r="N11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -1525,40 +1465,40 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0132918909875381</v>
+        <v>0.00104841581700011</v>
       </c>
       <c r="D12" t="n">
-        <v>216</v>
+        <v>3251</v>
       </c>
       <c r="E12" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G12" t="n">
-        <v>0.10655737704918</v>
+        <v>0.472868217054264</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0601851851851852</v>
+        <v>0.0187634573977238</v>
       </c>
       <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
         <v>45</v>
       </c>
-      <c r="J12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2801</v>
+      </c>
+      <c r="N12" t="s">
         <v>46</v>
-      </c>
-      <c r="L12" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2675</v>
-      </c>
-      <c r="N12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1569,40 +1509,40 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0264578935994836</v>
+        <v>0.0223877353699331</v>
       </c>
       <c r="D13" t="n">
-        <v>879</v>
+        <v>232</v>
       </c>
       <c r="E13" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F13" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>0.213114754098361</v>
+        <v>0.10077519379845</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0295790671217292</v>
+        <v>0.0560344827586207</v>
       </c>
       <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" t="s">
         <v>48</v>
       </c>
-      <c r="J13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2367</v>
+      </c>
+      <c r="N13" t="s">
         <v>49</v>
-      </c>
-      <c r="L13" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2090</v>
-      </c>
-      <c r="N13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -1613,40 +1553,40 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.000399147417313929</v>
+        <v>0.0300525543882593</v>
       </c>
       <c r="D14" t="n">
-        <v>176</v>
+        <v>968</v>
       </c>
       <c r="E14" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0901639344262295</v>
+        <v>0.209302325581395</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0625</v>
+        <v>0.0278925619834711</v>
       </c>
       <c r="I14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
         <v>51</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1851</v>
+      </c>
+      <c r="N14" t="s">
         <v>52</v>
-      </c>
-      <c r="K14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M14" t="n">
-        <v>141</v>
-      </c>
-      <c r="N14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15">
@@ -1657,37 +1597,37 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.000765764586482006</v>
+        <v>0.000651230560723149</v>
       </c>
       <c r="D15" t="n">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="E15" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0983606557377049</v>
+        <v>0.0852713178294574</v>
       </c>
       <c r="H15" t="n">
-        <v>0.052863436123348</v>
+        <v>0.0582010582010582</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s">
         <v>55</v>
       </c>
       <c r="L15" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M15" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N15" t="s">
         <v>56</v>
@@ -1701,40 +1641,40 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00997282185869894</v>
+        <v>0.00123897132944744</v>
       </c>
       <c r="D16" t="n">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E16" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0901639344262295</v>
+        <v>0.0930232558139535</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0445344129554656</v>
+        <v>0.0493827160493827</v>
       </c>
       <c r="I16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" t="s">
         <v>57</v>
       </c>
-      <c r="J16" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="L16" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M16" t="n">
+        <v>140</v>
+      </c>
+      <c r="N16" t="s">
         <v>58</v>
-      </c>
-      <c r="L16" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M16" t="n">
-        <v>544</v>
-      </c>
-      <c r="N16" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17">
@@ -1745,40 +1685,40 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0119562216440215</v>
+        <v>0.0145473924615861</v>
       </c>
       <c r="D17" t="n">
-        <v>95</v>
+        <v>263</v>
       </c>
       <c r="E17" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0573770491803279</v>
+        <v>0.0852713178294574</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0736842105263158</v>
+        <v>0.0418250950570342</v>
       </c>
       <c r="I17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" t="s">
         <v>60</v>
       </c>
-      <c r="J17" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="L17" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M17" t="n">
+        <v>569</v>
+      </c>
+      <c r="N17" t="s">
         <v>61</v>
-      </c>
-      <c r="L17" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M17" t="n">
-        <v>142</v>
-      </c>
-      <c r="N17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18">
@@ -1789,40 +1729,40 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0267480113808907</v>
+        <v>0.0177547042923599</v>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="E18" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0491803278688525</v>
+        <v>0.0542635658914729</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08</v>
+        <v>0.0679611650485437</v>
       </c>
       <c r="I18" t="s">
         <v>62</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K18" t="s">
         <v>63</v>
       </c>
       <c r="L18" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M18" t="n">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="N18" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
@@ -1833,154 +1773,154 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0496430108681021</v>
+        <v>0.0323119922626944</v>
       </c>
       <c r="D19" t="n">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="E19" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0573770491803279</v>
+        <v>0.0465116279069767</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="I19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" t="s">
         <v>65</v>
       </c>
-      <c r="J19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="L19" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M19" t="n">
+        <v>105</v>
+      </c>
+      <c r="N19" t="s">
         <v>66</v>
-      </c>
-      <c r="L19" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M19" t="n">
-        <v>159</v>
-      </c>
-      <c r="N19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0342292920856707</v>
+      </c>
+      <c r="D20" t="n">
+        <v>27</v>
+      </c>
+      <c r="E20" t="n">
+        <v>129</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0310077519379845</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.148148148148148</v>
+      </c>
+      <c r="I20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" t="s">
         <v>68</v>
       </c>
-      <c r="B20" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.000414603811529947</v>
-      </c>
-      <c r="D20" t="n">
-        <v>172</v>
-      </c>
-      <c r="E20" t="n">
-        <v>94</v>
-      </c>
-      <c r="F20" t="n">
-        <v>12</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.127659574468085</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.0697674418604651</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="L20" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M20" t="n">
+        <v>298</v>
+      </c>
+      <c r="N20" t="s">
         <v>69</v>
-      </c>
-      <c r="J20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M20" t="n">
-        <v>304</v>
-      </c>
-      <c r="N20" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00108706515531434</v>
+        <v>0.0000535082416250966</v>
       </c>
       <c r="D21" t="n">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="E21" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F21" t="n">
         <v>14</v>
       </c>
       <c r="G21" t="n">
-        <v>0.148936170212766</v>
+        <v>0.138613861386139</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0514705882352941</v>
+        <v>0.0645161290322581</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s">
         <v>16</v>
       </c>
       <c r="K21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M21" t="n">
+        <v>246</v>
+      </c>
+      <c r="N21" t="s">
         <v>73</v>
-      </c>
-      <c r="L21" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2972</v>
-      </c>
-      <c r="N21" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00178322681679596</v>
+        <v>0.000136029679601876</v>
       </c>
       <c r="D22" t="n">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="E22" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>0.159574468085106</v>
+        <v>0.168316831683168</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0453172205438066</v>
+        <v>0.046070460704607</v>
       </c>
       <c r="I22" t="s">
         <v>74</v>
@@ -1992,10 +1932,10 @@
         <v>75</v>
       </c>
       <c r="L22" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M22" t="n">
-        <v>120</v>
+        <v>2717</v>
       </c>
       <c r="N22" t="s">
         <v>76</v>
@@ -2003,28 +1943,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0029263959573985</v>
+        <v>0.000552633473969624</v>
       </c>
       <c r="D23" t="n">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="E23" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>0.138297872340426</v>
+        <v>0.118811881188119</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0524193548387097</v>
+        <v>0.0674157303370786</v>
       </c>
       <c r="I23" t="s">
         <v>77</v>
@@ -2036,10 +1976,10 @@
         <v>78</v>
       </c>
       <c r="L23" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M23" t="n">
-        <v>22948</v>
+        <v>25</v>
       </c>
       <c r="N23" t="s">
         <v>79</v>
@@ -2047,28 +1987,28 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00639842537909959</v>
+        <v>0.00112381948797379</v>
       </c>
       <c r="D24" t="n">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="E24" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G24" t="n">
-        <v>0.127659574468085</v>
+        <v>0.138613861386139</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0545454545454545</v>
+        <v>0.0509090909090909</v>
       </c>
       <c r="I24" t="s">
         <v>80</v>
@@ -2080,42 +2020,42 @@
         <v>81</v>
       </c>
       <c r="L24" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M24" t="n">
-        <v>22109</v>
+        <v>19957</v>
       </c>
       <c r="N24" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00853129669228737</v>
+        <v>0.00237429313349742</v>
       </c>
       <c r="D25" t="n">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="E25" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>0.159574468085106</v>
+        <v>0.148514851485149</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0402144772117962</v>
+        <v>0.0439882697947214</v>
       </c>
       <c r="I25" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s">
         <v>16</v>
@@ -2124,10 +2064,10 @@
         <v>83</v>
       </c>
       <c r="L25" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M25" t="n">
-        <v>14662</v>
+        <v>82</v>
       </c>
       <c r="N25" t="s">
         <v>84</v>
@@ -2135,28 +2075,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00917062510316817</v>
+        <v>0.00264214702233338</v>
       </c>
       <c r="D26" t="n">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="E26" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0851063829787234</v>
+        <v>0.128712871287129</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1</v>
+        <v>0.0524193548387097</v>
       </c>
       <c r="I26" t="s">
         <v>85</v>
@@ -2168,10 +2108,10 @@
         <v>86</v>
       </c>
       <c r="L26" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M26" t="n">
-        <v>16240</v>
+        <v>20717</v>
       </c>
       <c r="N26" t="s">
         <v>87</v>
@@ -2179,395 +2119,395 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0120622546593586</v>
+        <v>0.0111608603634798</v>
       </c>
       <c r="D27" t="n">
-        <v>150</v>
+        <v>384</v>
       </c>
       <c r="E27" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>0.106382978723404</v>
+        <v>0.148514851485149</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.0390625</v>
       </c>
       <c r="I27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s">
         <v>16</v>
       </c>
       <c r="K27" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M27" t="n">
+        <v>13365</v>
+      </c>
+      <c r="N27" t="s">
         <v>89</v>
-      </c>
-      <c r="L27" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M27" t="n">
-        <v>32</v>
-      </c>
-      <c r="N27" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00554401846060927</v>
+        <v>0.0181422724675547</v>
       </c>
       <c r="D28" t="n">
-        <v>591</v>
+        <v>121</v>
       </c>
       <c r="E28" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F28" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>0.202127659574468</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0321489001692047</v>
+        <v>0.0743801652892562</v>
       </c>
       <c r="I28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
         <v>91</v>
       </c>
-      <c r="J28" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="L28" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M28" t="n">
+        <v>14837</v>
+      </c>
+      <c r="N28" t="s">
         <v>92</v>
-      </c>
-      <c r="L28" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M28" t="n">
-        <v>3777</v>
-      </c>
-      <c r="N28" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00649308492427016</v>
+        <v>0.036196827050138</v>
       </c>
       <c r="D29" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="E29" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>0.202127659574468</v>
+        <v>0.168316831683168</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0318257956448911</v>
+        <v>0.0313653136531365</v>
       </c>
       <c r="I29" t="s">
         <v>93</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="K29" t="s">
         <v>94</v>
       </c>
       <c r="L29" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M29" t="n">
-        <v>3747</v>
+        <v>14382</v>
       </c>
       <c r="N29" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0249328937793042</v>
+        <v>0.00726341128565886</v>
       </c>
       <c r="D30" t="n">
-        <v>204</v>
+        <v>670</v>
       </c>
       <c r="E30" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F30" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G30" t="n">
-        <v>0.117021276595745</v>
+        <v>0.198019801980198</v>
       </c>
       <c r="H30" t="n">
-        <v>0.053921568627451</v>
+        <v>0.0298507462686567</v>
       </c>
       <c r="I30" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" t="s">
         <v>96</v>
       </c>
-      <c r="J30" t="s">
-        <v>42</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="L30" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3374</v>
+      </c>
+      <c r="N30" t="s">
         <v>97</v>
-      </c>
-      <c r="L30" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M30" t="n">
-        <v>110</v>
-      </c>
-      <c r="N30" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00000000106779282798559</v>
+        <v>0.00838955791004323</v>
       </c>
       <c r="D31" t="n">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="E31" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F31" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>0.287234042553192</v>
+        <v>0.198019801980198</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0370879120879121</v>
+        <v>0.029585798816568</v>
       </c>
       <c r="I31" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" t="s">
+        <v>98</v>
+      </c>
+      <c r="L31" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3351</v>
+      </c>
+      <c r="N31" t="s">
         <v>99</v>
-      </c>
-      <c r="J31" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31" t="s">
-        <v>100</v>
-      </c>
-      <c r="L31" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M31" t="n">
-        <v>603</v>
-      </c>
-      <c r="N31" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00000000121570910339045</v>
+        <v>0.00000000109896011836706</v>
       </c>
       <c r="D32" t="n">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E32" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F32" t="n">
         <v>28</v>
       </c>
       <c r="G32" t="n">
-        <v>0.297872340425532</v>
+        <v>0.277227722772277</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0353535353535354</v>
+        <v>0.0353982300884956</v>
       </c>
       <c r="I32" t="s">
+        <v>100</v>
+      </c>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" t="s">
+        <v>101</v>
+      </c>
+      <c r="L32" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M32" t="n">
+        <v>628</v>
+      </c>
+      <c r="N32" t="s">
         <v>102</v>
-      </c>
-      <c r="J32" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32" t="s">
-        <v>103</v>
-      </c>
-      <c r="L32" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M32" t="n">
-        <v>655</v>
-      </c>
-      <c r="N32" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0000000895009144000508</v>
+        <v>0.000000001486324143037</v>
       </c>
       <c r="D33" t="n">
-        <v>693</v>
+        <v>863</v>
       </c>
       <c r="E33" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F33" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G33" t="n">
-        <v>0.25531914893617</v>
+        <v>0.287128712871287</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0346320346320346</v>
+        <v>0.033603707995365</v>
       </c>
       <c r="I33" t="s">
+        <v>103</v>
+      </c>
+      <c r="J33" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" t="s">
+        <v>104</v>
+      </c>
+      <c r="L33" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M33" t="n">
+        <v>680</v>
+      </c>
+      <c r="N33" t="s">
         <v>105</v>
-      </c>
-      <c r="J33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K33" t="s">
-        <v>106</v>
-      </c>
-      <c r="L33" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M33" t="n">
-        <v>664</v>
-      </c>
-      <c r="N33" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B34" t="b">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00000157117625573564</v>
+        <v>0.0000000847764579598513</v>
       </c>
       <c r="D34" t="n">
-        <v>610</v>
+        <v>756</v>
       </c>
       <c r="E34" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F34" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G34" t="n">
-        <v>0.223404255319149</v>
+        <v>0.247524752475248</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0344262295081967</v>
+        <v>0.0330687830687831</v>
       </c>
       <c r="I34" t="s">
+        <v>106</v>
+      </c>
+      <c r="J34" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" t="s">
         <v>107</v>
       </c>
-      <c r="J34" t="s">
-        <v>52</v>
-      </c>
-      <c r="K34" t="s">
-        <v>108</v>
-      </c>
       <c r="L34" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M34" t="n">
-        <v>612</v>
+        <v>689</v>
       </c>
       <c r="N34" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00000192168695825823</v>
+        <v>0.00000129693814133203</v>
       </c>
       <c r="D35" t="n">
-        <v>617</v>
+        <v>668</v>
       </c>
       <c r="E35" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G35" t="n">
-        <v>0.223404255319149</v>
+        <v>0.217821782178218</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0340356564019449</v>
+        <v>0.0329341317365269</v>
       </c>
       <c r="I35" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" t="s">
         <v>109</v>
       </c>
-      <c r="J35" t="s">
-        <v>52</v>
-      </c>
-      <c r="K35" t="s">
-        <v>110</v>
-      </c>
       <c r="L35" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M35" t="n">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="N35" t="s">
         <v>102</v>
@@ -2575,87 +2515,87 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0000274125206970608</v>
+        <v>0.00000194666219114461</v>
       </c>
       <c r="D36" t="n">
-        <v>654</v>
+        <v>683</v>
       </c>
       <c r="E36" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F36" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G36" t="n">
-        <v>0.212765957446809</v>
+        <v>0.217821782178218</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0305810397553517</v>
+        <v>0.0322108345534407</v>
       </c>
       <c r="I36" t="s">
+        <v>110</v>
+      </c>
+      <c r="J36" t="s">
+        <v>54</v>
+      </c>
+      <c r="K36" t="s">
         <v>111</v>
       </c>
-      <c r="J36" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36" t="s">
-        <v>112</v>
-      </c>
       <c r="L36" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M36" t="n">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="N36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0000286850589181811</v>
+        <v>0.0000187367131786263</v>
       </c>
       <c r="D37" t="n">
-        <v>531</v>
+        <v>708</v>
       </c>
       <c r="E37" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F37" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G37" t="n">
-        <v>0.191489361702128</v>
+        <v>0.207920792079208</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0338983050847458</v>
+        <v>0.0296610169491525</v>
       </c>
       <c r="I37" t="s">
+        <v>112</v>
+      </c>
+      <c r="J37" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37" t="s">
         <v>113</v>
       </c>
-      <c r="J37" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37" t="s">
-        <v>114</v>
-      </c>
       <c r="L37" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M37" t="n">
-        <v>665</v>
+        <v>713</v>
       </c>
       <c r="N37" t="s">
         <v>105</v>
@@ -2663,967 +2603,967 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0.000104419140972303</v>
+        <v>0.0000760328663619831</v>
       </c>
       <c r="D38" t="n">
-        <v>517</v>
+        <v>571</v>
       </c>
       <c r="E38" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F38" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G38" t="n">
-        <v>0.180851063829787</v>
+        <v>0.178217821782178</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0328820116054159</v>
+        <v>0.031523642732049</v>
       </c>
       <c r="I38" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" t="s">
         <v>115</v>
       </c>
-      <c r="J38" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" t="s">
-        <v>116</v>
-      </c>
       <c r="L38" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M38" t="n">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="N38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0.000123754085549564</v>
+        <v>0.000084313053544847</v>
       </c>
       <c r="D39" t="n">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="E39" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F39" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G39" t="n">
-        <v>0.170212765957447</v>
+        <v>0.168316831683168</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0345572354211663</v>
+        <v>0.0331384015594542</v>
       </c>
       <c r="I39" t="s">
+        <v>116</v>
+      </c>
+      <c r="J39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39" t="s">
         <v>117</v>
       </c>
-      <c r="J39" t="s">
-        <v>52</v>
-      </c>
-      <c r="K39" t="s">
-        <v>118</v>
-      </c>
       <c r="L39" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M39" t="n">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="N39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0.000209381793266357</v>
+        <v>0.000119908262692199</v>
       </c>
       <c r="D40" t="n">
-        <v>674</v>
+        <v>589</v>
       </c>
       <c r="E40" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F40" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G40" t="n">
-        <v>0.202127659574468</v>
+        <v>0.178217821782178</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0281899109792285</v>
+        <v>0.0305602716468591</v>
       </c>
       <c r="I40" t="s">
+        <v>118</v>
+      </c>
+      <c r="J40" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" t="s">
         <v>119</v>
       </c>
-      <c r="J40" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40" t="s">
-        <v>120</v>
-      </c>
       <c r="L40" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M40" t="n">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="N40" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B41" t="b">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0.000235019728991843</v>
+        <v>0.000131856238640022</v>
       </c>
       <c r="D41" t="n">
-        <v>819</v>
+        <v>726</v>
       </c>
       <c r="E41" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G41" t="n">
-        <v>0.223404255319149</v>
+        <v>0.198019801980198</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0256410256410256</v>
+        <v>0.0275482093663912</v>
       </c>
       <c r="I41" t="s">
+        <v>120</v>
+      </c>
+      <c r="J41" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41" t="s">
         <v>121</v>
       </c>
-      <c r="J41" t="s">
-        <v>52</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="L41" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M41" t="n">
+        <v>705</v>
+      </c>
+      <c r="N41" t="s">
         <v>122</v>
-      </c>
-      <c r="L41" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M41" t="n">
-        <v>679</v>
-      </c>
-      <c r="N41" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B42" t="b">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.000463031986467093</v>
+        <v>0.000175060385118729</v>
       </c>
       <c r="D42" t="n">
-        <v>233</v>
+        <v>882</v>
       </c>
       <c r="E42" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F42" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G42" t="n">
-        <v>0.117021276595745</v>
+        <v>0.217821782178218</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0472103004291846</v>
+        <v>0.0249433106575964</v>
       </c>
       <c r="I42" t="s">
+        <v>122</v>
+      </c>
+      <c r="J42" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42" t="s">
         <v>123</v>
       </c>
-      <c r="J42" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" t="s">
-        <v>124</v>
-      </c>
       <c r="L42" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M42" t="n">
-        <v>657</v>
+        <v>704</v>
       </c>
       <c r="N42" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0.000477595609147541</v>
+        <v>0.000347810995964764</v>
       </c>
       <c r="D43" t="n">
-        <v>577</v>
+        <v>634</v>
       </c>
       <c r="E43" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G43" t="n">
-        <v>0.180851063829787</v>
+        <v>0.178217821782178</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0294627383015598</v>
+        <v>0.028391167192429</v>
       </c>
       <c r="I43" t="s">
+        <v>124</v>
+      </c>
+      <c r="J43" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" t="s">
         <v>125</v>
       </c>
-      <c r="J43" t="s">
-        <v>52</v>
-      </c>
-      <c r="K43" t="s">
-        <v>126</v>
-      </c>
       <c r="L43" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M43" t="n">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="N43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.000488752509897477</v>
+        <v>0.000373725994948926</v>
       </c>
       <c r="D44" t="n">
-        <v>337</v>
+        <v>776</v>
       </c>
       <c r="E44" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F44" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>0.138297872340426</v>
+        <v>0.198019801980198</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0385756676557863</v>
+        <v>0.0257731958762887</v>
       </c>
       <c r="I44" t="s">
+        <v>126</v>
+      </c>
+      <c r="J44" t="s">
+        <v>54</v>
+      </c>
+      <c r="K44" t="s">
         <v>127</v>
       </c>
-      <c r="J44" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44" t="s">
-        <v>128</v>
-      </c>
       <c r="L44" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M44" t="n">
-        <v>704</v>
+        <v>652</v>
       </c>
       <c r="N44" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B45" t="b">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.000589544073608299</v>
+        <v>0.000397921543862434</v>
       </c>
       <c r="D45" t="n">
-        <v>586</v>
+        <v>640</v>
       </c>
       <c r="E45" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F45" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G45" t="n">
-        <v>0.180851063829787</v>
+        <v>0.178217821782178</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0290102389078498</v>
+        <v>0.028125</v>
       </c>
       <c r="I45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L45" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M45" t="n">
-        <v>639</v>
+        <v>664</v>
       </c>
       <c r="N45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B46" t="b">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0.000621969603353594</v>
+        <v>0.000400813603874796</v>
       </c>
       <c r="D46" t="n">
-        <v>725</v>
+        <v>574</v>
       </c>
       <c r="E46" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G46" t="n">
-        <v>0.202127659574468</v>
+        <v>0.168316831683168</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0262068965517241</v>
+        <v>0.029616724738676</v>
       </c>
       <c r="I46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L46" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M46" t="n">
-        <v>627</v>
+        <v>714</v>
       </c>
       <c r="N46" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.000713266772001518</v>
+        <v>0.000454796738945092</v>
       </c>
       <c r="D47" t="n">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="E47" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F47" t="n">
         <v>16</v>
       </c>
       <c r="G47" t="n">
-        <v>0.170212765957447</v>
+        <v>0.158415841584158</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0302457466918715</v>
+        <v>0.0310679611650485</v>
       </c>
       <c r="I47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L47" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M47" t="n">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="N47" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B48" t="b">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0.000852258249929457</v>
+        <v>0.00103871092266659</v>
       </c>
       <c r="D48" t="n">
-        <v>473</v>
+        <v>364</v>
       </c>
       <c r="E48" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G48" t="n">
-        <v>0.159574468085106</v>
+        <v>0.128712871287129</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="I48" t="s">
+        <v>134</v>
+      </c>
+      <c r="J48" t="s">
+        <v>54</v>
+      </c>
+      <c r="K48" t="s">
+        <v>135</v>
+      </c>
+      <c r="L48" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M48" t="n">
+        <v>729</v>
+      </c>
+      <c r="N48" t="s">
         <v>136</v>
-      </c>
-      <c r="J48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K48" t="s">
-        <v>137</v>
-      </c>
-      <c r="L48" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M48" t="n">
-        <v>640</v>
-      </c>
-      <c r="N48" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0.00128584182537266</v>
+        <v>0.00113705037506659</v>
       </c>
       <c r="D49" t="n">
-        <v>368</v>
+        <v>258</v>
       </c>
       <c r="E49" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F49" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>0.138297872340426</v>
+        <v>0.108910891089109</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0353260869565217</v>
+        <v>0.0426356589147287</v>
       </c>
       <c r="I49" t="s">
+        <v>137</v>
+      </c>
+      <c r="J49" t="s">
+        <v>54</v>
+      </c>
+      <c r="K49" t="s">
         <v>138</v>
       </c>
-      <c r="J49" t="s">
-        <v>52</v>
-      </c>
-      <c r="K49" t="s">
-        <v>139</v>
-      </c>
       <c r="L49" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M49" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N49" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.00178354892299546</v>
+        <v>0.00141616297471018</v>
       </c>
       <c r="D50" t="n">
-        <v>322</v>
+        <v>214</v>
       </c>
       <c r="E50" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F50" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>0.127659574468085</v>
+        <v>0.099009900990099</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0372670807453416</v>
+        <v>0.0467289719626168</v>
       </c>
       <c r="I50" t="s">
+        <v>139</v>
+      </c>
+      <c r="J50" t="s">
+        <v>54</v>
+      </c>
+      <c r="K50" t="s">
         <v>140</v>
       </c>
-      <c r="J50" t="s">
-        <v>52</v>
-      </c>
-      <c r="K50" t="s">
-        <v>141</v>
-      </c>
       <c r="L50" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M50" t="n">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="N50" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B51" t="b">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0.00409815458784123</v>
+        <v>0.00231641078105275</v>
       </c>
       <c r="D51" t="n">
-        <v>539</v>
+        <v>392</v>
       </c>
       <c r="E51" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G51" t="n">
-        <v>0.159574468085106</v>
+        <v>0.128712871287129</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0278293135435993</v>
+        <v>0.0331632653061225</v>
       </c>
       <c r="I51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L51" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M51" t="n">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="N51" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.00435249613566967</v>
+        <v>0.00264689135000006</v>
       </c>
       <c r="D52" t="n">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="E52" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G52" t="n">
-        <v>0.106382978723404</v>
+        <v>0.108910891089109</v>
       </c>
       <c r="H52" t="n">
-        <v>0.04149377593361</v>
+        <v>0.0390070921985816</v>
       </c>
       <c r="I52" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K52" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L52" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M52" t="n">
-        <v>220</v>
+        <v>645</v>
       </c>
       <c r="N52" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B53" t="b">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0.00449660605112663</v>
+        <v>0.00282880963194445</v>
       </c>
       <c r="D53" t="n">
-        <v>612</v>
+        <v>284</v>
       </c>
       <c r="E53" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F53" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>0.170212765957447</v>
+        <v>0.108910891089109</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0261437908496732</v>
+        <v>0.0387323943661972</v>
       </c>
       <c r="I53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L53" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M53" t="n">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="N53" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B54" t="b">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0.00468053876601627</v>
+        <v>0.00305092217442884</v>
       </c>
       <c r="D54" t="n">
-        <v>193</v>
+        <v>598</v>
       </c>
       <c r="E54" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F54" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0957446808510638</v>
+        <v>0.158415841584158</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0466321243523316</v>
+        <v>0.0267558528428094</v>
       </c>
       <c r="I54" t="s">
+        <v>149</v>
+      </c>
+      <c r="J54" t="s">
+        <v>54</v>
+      </c>
+      <c r="K54" t="s">
         <v>150</v>
       </c>
-      <c r="J54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="L54" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M54" t="n">
+        <v>717</v>
+      </c>
+      <c r="N54" t="s">
         <v>151</v>
-      </c>
-      <c r="L54" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M54" t="n">
-        <v>615</v>
-      </c>
-      <c r="N54" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B55" t="b">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0.00538202868290681</v>
+        <v>0.00308339756142011</v>
       </c>
       <c r="D55" t="n">
-        <v>247</v>
+        <v>343</v>
       </c>
       <c r="E55" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G55" t="n">
-        <v>0.106382978723404</v>
+        <v>0.118811881188119</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0404858299595142</v>
+        <v>0.0349854227405248</v>
       </c>
       <c r="I55" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K55" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="L55" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M55" t="n">
-        <v>544</v>
+        <v>666</v>
       </c>
       <c r="N55" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B56" t="b">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.00593584459147557</v>
+        <v>0.00326830257009157</v>
       </c>
       <c r="D56" t="n">
-        <v>698</v>
+        <v>345</v>
       </c>
       <c r="E56" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F56" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G56" t="n">
-        <v>0.180851063829787</v>
+        <v>0.118811881188119</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0243553008595989</v>
+        <v>0.0347826086956522</v>
       </c>
       <c r="I56" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L56" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M56" t="n">
-        <v>618</v>
+        <v>654</v>
       </c>
       <c r="N56" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B57" t="b">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.00617479026585447</v>
+        <v>0.0034769209296448</v>
       </c>
       <c r="D57" t="n">
-        <v>628</v>
+        <v>675</v>
       </c>
       <c r="E57" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F57" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G57" t="n">
-        <v>0.170212765957447</v>
+        <v>0.168316831683168</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0254777070063694</v>
+        <v>0.0251851851851852</v>
       </c>
       <c r="I57" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K57" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L57" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M57" t="n">
-        <v>685</v>
+        <v>716</v>
       </c>
       <c r="N57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.00675787901947494</v>
+        <v>0.00461947751466759</v>
       </c>
       <c r="D58" t="n">
-        <v>309</v>
+        <v>690</v>
       </c>
       <c r="E58" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F58" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G58" t="n">
-        <v>0.117021276595745</v>
+        <v>0.168316831683168</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0355987055016181</v>
+        <v>0.0246376811594203</v>
       </c>
       <c r="I58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K58" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L58" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M58" t="n">
-        <v>237</v>
+        <v>710</v>
       </c>
       <c r="N58" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B59" t="b">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.00684174861009077</v>
+        <v>0.00481059479074124</v>
       </c>
       <c r="D59" t="n">
-        <v>254</v>
+        <v>551</v>
       </c>
       <c r="E59" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G59" t="n">
-        <v>0.106382978723404</v>
+        <v>0.148514851485149</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0393700787401575</v>
+        <v>0.0272232304900181</v>
       </c>
       <c r="I59" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="J59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K59" t="s">
         <v>160</v>
       </c>
       <c r="L59" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M59" t="n">
-        <v>526</v>
+        <v>644</v>
       </c>
       <c r="N59" t="s">
         <v>161</v>
@@ -3631,1366 +3571,970 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" t="b">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.00707574259003983</v>
+        <v>0.00497074488623886</v>
       </c>
       <c r="D60" t="n">
-        <v>255</v>
+        <v>768</v>
       </c>
       <c r="E60" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G60" t="n">
-        <v>0.106382978723404</v>
+        <v>0.178217821782178</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.0234375</v>
       </c>
       <c r="I60" t="s">
+        <v>161</v>
+      </c>
+      <c r="J60" t="s">
+        <v>54</v>
+      </c>
+      <c r="K60" t="s">
         <v>162</v>
       </c>
-      <c r="J60" t="s">
-        <v>52</v>
-      </c>
-      <c r="K60" t="s">
-        <v>163</v>
-      </c>
       <c r="L60" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M60" t="n">
-        <v>620</v>
+        <v>643</v>
       </c>
       <c r="N60" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B61" t="b">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0.00774013343527</v>
+        <v>0.00849527460913802</v>
       </c>
       <c r="D61" t="n">
-        <v>501</v>
+        <v>263</v>
       </c>
       <c r="E61" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F61" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>0.148936170212766</v>
+        <v>0.099009900990099</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0279441117764471</v>
+        <v>0.0380228136882129</v>
       </c>
       <c r="I61" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K61" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="L61" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M61" t="n">
-        <v>619</v>
+        <v>569</v>
       </c>
       <c r="N61" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B62" t="b">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.00806442031719508</v>
+        <v>0.00906044457397128</v>
       </c>
       <c r="D62" t="n">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="E62" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>0.117021276595745</v>
+        <v>0.099009900990099</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0349206349206349</v>
+        <v>0.0377358490566038</v>
       </c>
       <c r="I62" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J62" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K62" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L62" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M62" t="n">
-        <v>641</v>
+        <v>220</v>
       </c>
       <c r="N62" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63" t="b">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0.00808173501494588</v>
+        <v>0.00959395291831211</v>
       </c>
       <c r="D63" t="n">
-        <v>259</v>
+        <v>807</v>
       </c>
       <c r="E63" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G63" t="n">
-        <v>0.106382978723404</v>
+        <v>0.178217821782178</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0386100386100386</v>
+        <v>0.0223048327137546</v>
       </c>
       <c r="I63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K63" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L63" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M63" t="n">
-        <v>261</v>
+        <v>695</v>
       </c>
       <c r="N63" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64" t="b">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.00878483684080428</v>
+        <v>0.0116417605299936</v>
       </c>
       <c r="D64" t="n">
-        <v>209</v>
+        <v>331</v>
       </c>
       <c r="E64" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F64" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0957446808510638</v>
+        <v>0.108910891089109</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0430622009569378</v>
+        <v>0.0332326283987915</v>
       </c>
       <c r="I64" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J64" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K64" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L64" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M64" t="n">
-        <v>541</v>
+        <v>237</v>
       </c>
       <c r="N64" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65" t="b">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0.00882143360646183</v>
+        <v>0.0123969853334403</v>
       </c>
       <c r="D65" t="n">
-        <v>378</v>
+        <v>598</v>
       </c>
       <c r="E65" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F65" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G65" t="n">
-        <v>0.127659574468085</v>
+        <v>0.148514851485149</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0317460317460317</v>
+        <v>0.0250836120401338</v>
       </c>
       <c r="I65" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K65" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L65" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M65" t="n">
-        <v>396</v>
+        <v>634</v>
       </c>
       <c r="N65" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66" t="b">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0.00891451375229775</v>
+        <v>0.0127797022123404</v>
       </c>
       <c r="D66" t="n">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="E66" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F66" t="n">
         <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>0.106382978723404</v>
+        <v>0.099009900990099</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0381679389312977</v>
+        <v>0.036231884057971</v>
       </c>
       <c r="I66" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K66" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L66" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M66" t="n">
-        <v>672</v>
+        <v>551</v>
       </c>
       <c r="N66" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67" t="b">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.00950964877710541</v>
+        <v>0.0132736119539836</v>
       </c>
       <c r="D67" t="n">
-        <v>264</v>
+        <v>463</v>
       </c>
       <c r="E67" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G67" t="n">
-        <v>0.106382978723404</v>
+        <v>0.128712871287129</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0378787878787879</v>
+        <v>0.0280777537796976</v>
       </c>
       <c r="I67" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K67" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L67" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M67" t="n">
-        <v>23</v>
+        <v>635</v>
       </c>
       <c r="N67" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B68" t="b">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0103431172061248</v>
+        <v>0.0143360337462411</v>
       </c>
       <c r="D68" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E68" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F68" t="n">
         <v>5</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0531914893617021</v>
+        <v>0.0495049504950495</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1</v>
+        <v>0.0925925925925926</v>
       </c>
       <c r="I68" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J68" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K68" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L68" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M68" t="n">
-        <v>536</v>
+        <v>561</v>
       </c>
       <c r="N68" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69" t="b">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0110331473971798</v>
+        <v>0.0158278164641828</v>
       </c>
       <c r="D69" t="n">
-        <v>326</v>
+        <v>611</v>
       </c>
       <c r="E69" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F69" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G69" t="n">
-        <v>0.117021276595745</v>
+        <v>0.148514851485149</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0337423312883436</v>
+        <v>0.0245499181669394</v>
       </c>
       <c r="I69" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="J69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K69" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L69" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M69" t="n">
-        <v>543</v>
+        <v>653</v>
       </c>
       <c r="N69" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B70" t="b">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0116636549139398</v>
+        <v>0.0160377210918911</v>
       </c>
       <c r="D70" t="n">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="E70" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F70" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G70" t="n">
-        <v>0.117021276595745</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0335365853658537</v>
+        <v>0.0394736842105263</v>
       </c>
       <c r="I70" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="J70" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K70" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L70" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M70" t="n">
-        <v>525</v>
+        <v>566</v>
       </c>
       <c r="N70" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B71" t="b">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0128741613737997</v>
+        <v>0.0162419975707103</v>
       </c>
       <c r="D71" t="n">
-        <v>742</v>
+        <v>284</v>
       </c>
       <c r="E71" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F71" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>0.180851063829787</v>
+        <v>0.099009900990099</v>
       </c>
       <c r="H71" t="n">
-        <v>0.022911051212938</v>
+        <v>0.0352112676056338</v>
       </c>
       <c r="I71" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J71" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K71" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L71" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M71" t="n">
-        <v>670</v>
+        <v>261</v>
       </c>
       <c r="N71" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B72" t="b">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0165807561327666</v>
+        <v>0.0182537093455555</v>
       </c>
       <c r="D72" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E72" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F72" t="n">
         <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>0.106382978723404</v>
+        <v>0.099009900990099</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0354609929078014</v>
+        <v>0.0347222222222222</v>
       </c>
       <c r="I72" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J72" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K72" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L72" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M72" t="n">
-        <v>519</v>
+        <v>23</v>
       </c>
       <c r="N72" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B73" t="b">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0167097783798764</v>
+        <v>0.0182835064334696</v>
       </c>
       <c r="D73" t="n">
-        <v>227</v>
+        <v>348</v>
       </c>
       <c r="E73" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F73" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0957446808510638</v>
+        <v>0.108910891089109</v>
       </c>
       <c r="H73" t="n">
-        <v>0.039647577092511</v>
+        <v>0.0316091954022989</v>
       </c>
       <c r="I73" t="s">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="J73" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K73" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L73" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M73" t="n">
-        <v>238</v>
+        <v>568</v>
       </c>
       <c r="N73" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B74" t="b">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0171445383532989</v>
+        <v>0.0229621741166462</v>
       </c>
       <c r="D74" t="n">
-        <v>539</v>
+        <v>357</v>
       </c>
       <c r="E74" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F74" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G74" t="n">
-        <v>0.148936170212766</v>
+        <v>0.108910891089109</v>
       </c>
       <c r="H74" t="n">
-        <v>0.025974025974026</v>
+        <v>0.030812324929972</v>
       </c>
       <c r="I74" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="J74" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K74" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L74" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M74" t="n">
-        <v>609</v>
+        <v>550</v>
       </c>
       <c r="N74" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B75" t="b">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0184890886417126</v>
+        <v>0.0282910591471151</v>
       </c>
       <c r="D75" t="n">
-        <v>230</v>
+        <v>8093</v>
       </c>
       <c r="E75" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F75" t="n">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0957446808510638</v>
+        <v>0.792079207920792</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0391304347826087</v>
+        <v>0.00988508587668355</v>
       </c>
       <c r="I75" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J75" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K75" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L75" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M75" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B76" t="b">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0222137930623389</v>
+        <v>0.028699343584611</v>
       </c>
       <c r="D76" t="n">
-        <v>416</v>
+        <v>246</v>
       </c>
       <c r="E76" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F76" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G76" t="n">
-        <v>0.127659574468085</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0288461538461538</v>
+        <v>0.0365853658536585</v>
       </c>
       <c r="I76" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J76" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K76" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L76" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M76" t="n">
-        <v>610</v>
+        <v>238</v>
       </c>
       <c r="N76" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B77" t="b">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0.022612548175107</v>
+        <v>0.0335294392323528</v>
       </c>
       <c r="D77" t="n">
-        <v>936</v>
+        <v>310</v>
       </c>
       <c r="E77" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F77" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>0.202127659574468</v>
+        <v>0.099009900990099</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0202991452991453</v>
+        <v>0.032258064516129</v>
       </c>
       <c r="I77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J77" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K77" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L77" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M77" t="n">
-        <v>422</v>
+        <v>544</v>
       </c>
       <c r="N77" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B78" t="b">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0234554663355323</v>
+        <v>0.0338371344273215</v>
       </c>
       <c r="D78" t="n">
-        <v>294</v>
+        <v>439</v>
       </c>
       <c r="E78" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G78" t="n">
-        <v>0.106382978723404</v>
+        <v>0.118811881188119</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0340136054421769</v>
+        <v>0.0273348519362187</v>
       </c>
       <c r="I78" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J78" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K78" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L78" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M78" t="n">
-        <v>257</v>
+        <v>421</v>
       </c>
       <c r="N78" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B79" t="b">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0299571076903008</v>
+        <v>0.035885019411605</v>
       </c>
       <c r="D79" t="n">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="E79" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F79" t="n">
         <v>14</v>
       </c>
       <c r="G79" t="n">
-        <v>0.148936170212766</v>
+        <v>0.138613861386139</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0246478873239437</v>
+        <v>0.0240137221269297</v>
       </c>
       <c r="I79" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="J79" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K79" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L79" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M79" t="n">
-        <v>628</v>
+        <v>696</v>
       </c>
       <c r="N79" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B80" t="b">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0306950630121025</v>
+        <v>0.0365637321713387</v>
       </c>
       <c r="D80" t="n">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="E80" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F80" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0851063829787234</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0416666666666667</v>
+        <v>0.0354330708661417</v>
       </c>
       <c r="I80" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J80" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K80" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L80" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M80" t="n">
-        <v>546</v>
+        <v>24</v>
       </c>
       <c r="N80" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B81" t="b">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0311131475488897</v>
+        <v>0.0468440642670297</v>
       </c>
       <c r="D81" t="n">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="E81" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>0.117021276595745</v>
+        <v>0.099009900990099</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0300546448087432</v>
+        <v>0.0309597523219814</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J81" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K81" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L81" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M81" t="n">
-        <v>690</v>
+        <v>257</v>
       </c>
       <c r="N81" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>68</v>
-      </c>
-      <c r="B82" t="b">
-        <v>1</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.0349225844189727</v>
-      </c>
-      <c r="D82" t="n">
-        <v>250</v>
-      </c>
-      <c r="E82" t="n">
-        <v>94</v>
-      </c>
-      <c r="F82" t="n">
-        <v>9</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.0957446808510638</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="I82" t="s">
-        <v>212</v>
-      </c>
-      <c r="J82" t="s">
-        <v>52</v>
-      </c>
-      <c r="K82" t="s">
-        <v>213</v>
-      </c>
-      <c r="L82" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M82" t="n">
-        <v>234</v>
-      </c>
-      <c r="N82" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B83" t="b">
-        <v>1</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.0349225844189727</v>
-      </c>
-      <c r="D83" t="n">
-        <v>250</v>
-      </c>
-      <c r="E83" t="n">
-        <v>94</v>
-      </c>
-      <c r="F83" t="n">
-        <v>9</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.0957446808510638</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="I83" t="s">
-        <v>173</v>
-      </c>
-      <c r="J83" t="s">
-        <v>52</v>
-      </c>
-      <c r="K83" t="s">
-        <v>214</v>
-      </c>
-      <c r="L83" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M83" t="n">
-        <v>540</v>
-      </c>
-      <c r="N83" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>68</v>
-      </c>
-      <c r="B84" t="b">
-        <v>1</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.036272520077948</v>
-      </c>
-      <c r="D84" t="n">
-        <v>310</v>
-      </c>
-      <c r="E84" t="n">
-        <v>94</v>
-      </c>
-      <c r="F84" t="n">
-        <v>10</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.106382978723404</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.032258064516129</v>
-      </c>
-      <c r="I84" t="s">
-        <v>215</v>
-      </c>
-      <c r="J84" t="s">
-        <v>52</v>
-      </c>
-      <c r="K84" t="s">
-        <v>216</v>
-      </c>
-      <c r="L84" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M84" t="n">
-        <v>26</v>
-      </c>
-      <c r="N84" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>68</v>
-      </c>
-      <c r="B85" t="b">
-        <v>1</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.0382117900822516</v>
-      </c>
-      <c r="D85" t="n">
-        <v>253</v>
-      </c>
-      <c r="E85" t="n">
-        <v>94</v>
-      </c>
-      <c r="F85" t="n">
-        <v>9</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.0957446808510638</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.0355731225296443</v>
-      </c>
-      <c r="I85" t="s">
-        <v>217</v>
-      </c>
-      <c r="J85" t="s">
-        <v>52</v>
-      </c>
-      <c r="K85" t="s">
-        <v>218</v>
-      </c>
-      <c r="L85" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M85" t="n">
-        <v>520</v>
-      </c>
-      <c r="N85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>68</v>
-      </c>
-      <c r="B86" t="b">
-        <v>1</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.0393641589526575</v>
-      </c>
-      <c r="D86" t="n">
-        <v>254</v>
-      </c>
-      <c r="E86" t="n">
-        <v>94</v>
-      </c>
-      <c r="F86" t="n">
-        <v>9</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.0957446808510638</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.0354330708661417</v>
-      </c>
-      <c r="I86" t="s">
-        <v>219</v>
-      </c>
-      <c r="J86" t="s">
-        <v>52</v>
-      </c>
-      <c r="K86" t="s">
-        <v>220</v>
-      </c>
-      <c r="L86" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M86" t="n">
-        <v>214</v>
-      </c>
-      <c r="N86" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>68</v>
-      </c>
-      <c r="B87" t="b">
-        <v>1</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.0424797605725629</v>
-      </c>
-      <c r="D87" t="n">
-        <v>67</v>
-      </c>
-      <c r="E87" t="n">
-        <v>94</v>
-      </c>
-      <c r="F87" t="n">
-        <v>5</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.0531914893617021</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.0746268656716418</v>
-      </c>
-      <c r="I87" t="s">
-        <v>222</v>
-      </c>
-      <c r="J87" t="s">
-        <v>52</v>
-      </c>
-      <c r="K87" t="s">
-        <v>223</v>
-      </c>
-      <c r="L87" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M87" t="n">
-        <v>163</v>
-      </c>
-      <c r="N87" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>68</v>
-      </c>
-      <c r="B88" t="b">
-        <v>1</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.0466949317287235</v>
-      </c>
-      <c r="D88" t="n">
-        <v>153</v>
-      </c>
-      <c r="E88" t="n">
-        <v>94</v>
-      </c>
-      <c r="F88" t="n">
-        <v>7</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.074468085106383</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.0457516339869281</v>
-      </c>
-      <c r="I88" t="s">
-        <v>225</v>
-      </c>
-      <c r="J88" t="s">
-        <v>52</v>
-      </c>
-      <c r="K88" t="s">
-        <v>226</v>
-      </c>
-      <c r="L88" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M88" t="n">
-        <v>36</v>
-      </c>
-      <c r="N88" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>68</v>
-      </c>
-      <c r="B89" t="b">
-        <v>1</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.0469649862800708</v>
-      </c>
-      <c r="D89" t="n">
-        <v>320</v>
-      </c>
-      <c r="E89" t="n">
-        <v>94</v>
-      </c>
-      <c r="F89" t="n">
-        <v>10</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.106382978723404</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="I89" t="s">
-        <v>148</v>
-      </c>
-      <c r="J89" t="s">
-        <v>52</v>
-      </c>
-      <c r="K89" t="s">
-        <v>228</v>
-      </c>
-      <c r="L89" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M89" t="n">
-        <v>219</v>
-      </c>
-      <c r="N89" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>68</v>
-      </c>
-      <c r="B90" t="b">
-        <v>1</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.0493947414613852</v>
-      </c>
-      <c r="D90" t="n">
-        <v>322</v>
-      </c>
-      <c r="E90" t="n">
-        <v>94</v>
-      </c>
-      <c r="F90" t="n">
-        <v>10</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.106382978723404</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.031055900621118</v>
-      </c>
-      <c r="I90" t="s">
-        <v>170</v>
-      </c>
-      <c r="J90" t="s">
-        <v>52</v>
-      </c>
-      <c r="K90" t="s">
-        <v>229</v>
-      </c>
-      <c r="L90" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M90" t="n">
-        <v>260</v>
-      </c>
-      <c r="N90" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
